--- a/assets/add_files/add_users.xlsx
+++ b/assets/add_files/add_users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander-DJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CursosCongresosUEB\assets\add_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99285FE-1DC9-4D5A-9730-4364F126582A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541324C6-B016-4487-A1C8-008164F50542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{204DDF7B-D46D-4BE2-8C2B-D698A5E5965B}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido Paterno</t>
-  </si>
-  <si>
-    <t>Apellido Materno</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Correo</t>
   </si>
@@ -52,6 +43,12 @@
   </si>
   <si>
     <t>Cedula</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Nombres</t>
   </si>
 </sst>
 </file>
@@ -130,13 +127,17 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,102 +475,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D81401-0A41-4C41-BE85-CB6C8AF0C0B6}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="5"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="4"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E2" s="8"/>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="6"/>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{A004EEDC-7AA0-41C1-96DB-E1B0FA68FCF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{A004EEDC-7AA0-41C1-96DB-E1B0FA68FCF7}">
       <formula1>"Seleccione,Masculino,Femenino"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{302BFE79-FEF5-431D-9828-B5D56B55BD76}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{302BFE79-FEF5-431D-9828-B5D56B55BD76}">
       <formula1>"Seleccione,Estudiante,Maestria,Doctorado"</formula1>
     </dataValidation>
   </dataValidations>
